--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1006907.516782748</v>
+        <v>1060024.766298451</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183239</v>
+        <v>4065790.38118324</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11996757.38029105</v>
+        <v>11996757.38029104</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7239538.31643597</v>
+        <v>7239538.316435971</v>
       </c>
     </row>
     <row r="11">
@@ -1369,70 +1369,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>34.06259291064545</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>81.49971487426107</v>
+      </c>
+      <c r="S11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="W11" t="n">
-        <v>115.5623077849066</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>51.56107156618203</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.28204657123847</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.2015301826823</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="X14" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,58 +1697,58 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>113.4160744202849</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>69.34652732857948</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>64.00123621872456</v>
+      </c>
+      <c r="S15" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,58 +1767,58 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="T16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,58 +1858,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,59 +1925,59 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E18" t="n">
+      <c r="T18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>106.6111980758233</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>64.00123621872456</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X18" t="n">
-        <v>76.15140367304102</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>131.2015301826823</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>115.5623077849066</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.06259291064552</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.06259291064545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="W20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="V21" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5623077849067</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V22" t="n">
         <v>131.2015301826823</v>
@@ -2304,7 +2304,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="X22" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>76.73898493386532</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H23" t="n">
         <v>328.3281935684761</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.3313648658995</v>
@@ -2377,10 +2377,10 @@
         <v>251.2585806574976</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>137.564536618535</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.77081159258206</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.00123621872456</v>
+        <v>9.509971502959937</v>
       </c>
       <c r="S24" t="n">
         <v>160.8663307357858</v>
@@ -2453,10 +2453,10 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>64.87258959182169</v>
+        <v>4.059246644267912</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.5152279305241</v>
+        <v>23.38533882441159</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S26" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.3313648658995</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.16556307995688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6111980758233</v>
+        <v>87.60850973901886</v>
       </c>
       <c r="I27" t="n">
         <v>69.34652732857948</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T27" t="n">
-        <v>82.3022844556392</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
         <v>225.903069777428</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.94899103297789</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>222.8744991677805</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2143343858988</v>
+        <v>39.06770747657043</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>253.7104396756723</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,16 +2876,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>92.95380084887368</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>34.65063491236402</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>76.44053652121134</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V31" t="n">
-        <v>215.13037729181</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>35.0817921444464</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>23.31093451145913</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S32" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>55.26412840105567</v>
       </c>
       <c r="G33" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
-        <v>14.52055033841344</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H34" t="n">
-        <v>6.490921965845198</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>196.2430911257231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>137.2691654813398</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>125.5448110115367</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>34.88669076577553</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>106.6111980758233</v>
+        <v>31.33628896747391</v>
       </c>
       <c r="I36" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U36" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H37" t="n">
-        <v>101.6880180082538</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>195.2301765020852</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.91668738233282</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>328.1959730888179</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>94.81675768668447</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>156.5440520783574</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>213.0572985513648</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.88893950121334</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>47.49759659520805</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>289.5195044555291</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.761170149299</v>
+        <v>9.245646278869353</v>
       </c>
       <c r="H42" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T42" t="n">
-        <v>95.73224233248847</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U42" t="n">
         <v>225.903069777428</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U43" t="n">
-        <v>257.0292550091256</v>
+        <v>283.307340557899</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>168.8240625167102</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>213.0155486990206</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,19 +4061,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H45" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>180.3048606389331</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>42.52968550481066</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>180.7194451328039</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>205.8593989873825</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E11" t="n">
         <v>10.49612241461459</v>
@@ -5041,52 +5041,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J11" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K11" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="L11" t="n">
-        <v>10.49612241461459</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="M11" t="n">
-        <v>140.3856372954701</v>
+        <v>349.898442254377</v>
       </c>
       <c r="N11" t="n">
-        <v>270.2751521763256</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="O11" t="n">
-        <v>288.4474575841818</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3369724650373</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q11" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R11" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S11" t="n">
-        <v>524.8061207307294</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T11" t="n">
-        <v>524.8061207307294</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U11" t="n">
-        <v>524.8061207307294</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="V11" t="n">
-        <v>392.2793225664038</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="W11" t="n">
-        <v>275.5497187432658</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="X11" t="n">
-        <v>275.5497187432658</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.5497187432658</v>
+        <v>44.90278192031707</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.49612241461459</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="C12" t="n">
-        <v>10.49612241461459</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="D12" t="n">
-        <v>10.49612241461459</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="E12" t="n">
-        <v>10.49612241461459</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="F12" t="n">
-        <v>10.49612241461459</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="G12" t="n">
-        <v>10.49612241461459</v>
+        <v>62.57801288550553</v>
       </c>
       <c r="H12" t="n">
-        <v>10.49612241461459</v>
+        <v>62.57801288550553</v>
       </c>
       <c r="I12" t="n">
         <v>10.49612241461459</v>
@@ -5123,37 +5123,37 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K12" t="n">
-        <v>10.49612241461459</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L12" t="n">
-        <v>10.49612241461459</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M12" t="n">
-        <v>140.3856372954701</v>
+        <v>145.7508609220566</v>
       </c>
       <c r="N12" t="n">
-        <v>270.2751521763256</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O12" t="n">
-        <v>394.9166058498739</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P12" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R12" t="n">
-        <v>460.1584073784824</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="S12" t="n">
-        <v>327.6316092141568</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="T12" t="n">
-        <v>327.6316092141568</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="U12" t="n">
-        <v>195.1048110498311</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="V12" t="n">
         <v>195.1048110498311</v>
@@ -5162,10 +5162,10 @@
         <v>195.1048110498311</v>
       </c>
       <c r="X12" t="n">
-        <v>62.57801288550553</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.57801288550553</v>
+        <v>195.1048110498311</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881291</v>
       </c>
       <c r="L13" t="n">
         <v>143.7777095003619</v>
@@ -5211,40 +5211,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N13" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O13" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P13" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R13" t="n">
-        <v>346.54168497684</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S13" t="n">
-        <v>214.0148868125144</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T13" t="n">
-        <v>214.0148868125144</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="U13" t="n">
-        <v>214.0148868125144</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="V13" t="n">
-        <v>81.48808864818881</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="W13" t="n">
-        <v>81.48808864818881</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X13" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C14" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D14" t="n">
         <v>143.0229205789402</v>
@@ -5266,58 +5266,58 @@
         <v>143.0229205789402</v>
       </c>
       <c r="F14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="I14" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J14" t="n">
-        <v>90.11941249266594</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K14" t="n">
-        <v>90.11941249266594</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="L14" t="n">
-        <v>90.11941249266594</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="M14" t="n">
-        <v>90.11941249266594</v>
+        <v>349.898442254377</v>
       </c>
       <c r="N14" t="n">
-        <v>220.0089273735215</v>
+        <v>349.898442254377</v>
       </c>
       <c r="O14" t="n">
-        <v>349.898442254377</v>
+        <v>479.7879571352324</v>
       </c>
       <c r="P14" t="n">
-        <v>479.7879571352325</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q14" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R14" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S14" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T14" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U14" t="n">
-        <v>275.5497187432658</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V14" t="n">
-        <v>275.5497187432658</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W14" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X14" t="n">
         <v>275.5497187432658</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.0229205789402</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="C15" t="n">
-        <v>143.0229205789402</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="D15" t="n">
-        <v>143.0229205789402</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="E15" t="n">
-        <v>143.0229205789402</v>
+        <v>195.1048110498311</v>
       </c>
       <c r="F15" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="G15" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="H15" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="I15" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J15" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K15" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="L15" t="n">
-        <v>10.49612241461459</v>
+        <v>115.2217060411543</v>
       </c>
       <c r="M15" t="n">
-        <v>135.1375760881628</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N15" t="n">
         <v>265.0270909690183</v>
       </c>
       <c r="O15" t="n">
-        <v>394.9166058498739</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P15" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q15" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R15" t="n">
-        <v>524.8061207307294</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="S15" t="n">
-        <v>524.8061207307294</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="T15" t="n">
-        <v>524.8061207307294</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="U15" t="n">
-        <v>392.2793225664038</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="V15" t="n">
-        <v>259.7525244020782</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="W15" t="n">
-        <v>143.0229205789402</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="X15" t="n">
-        <v>143.0229205789402</v>
+        <v>327.6316092141567</v>
       </c>
       <c r="Y15" t="n">
-        <v>143.0229205789402</v>
+        <v>327.6316092141567</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C16" t="n">
         <v>10.49612241461459</v>
@@ -5439,49 +5439,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881303</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L16" t="n">
-        <v>143.777709500362</v>
+        <v>143.7777095003619</v>
       </c>
       <c r="M16" t="n">
-        <v>258.7311718598701</v>
+        <v>258.73117185987</v>
       </c>
       <c r="N16" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O16" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R16" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S16" t="n">
-        <v>524.8061207307294</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="T16" t="n">
-        <v>392.2793225664038</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="U16" t="n">
-        <v>392.2793225664038</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V16" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W16" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X16" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C17" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D17" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E17" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="F17" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="G17" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="H17" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="I17" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K17" t="n">
-        <v>90.11941249266594</v>
+        <v>135.1375760881628</v>
       </c>
       <c r="L17" t="n">
-        <v>90.11941249266594</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="M17" t="n">
-        <v>90.11941249266594</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="N17" t="n">
-        <v>220.0089273735215</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O17" t="n">
-        <v>349.898442254377</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3369724650373</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U17" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V17" t="n">
-        <v>408.0765169075914</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W17" t="n">
-        <v>408.0765169075914</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X17" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y17" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>383.2377976077339</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C18" t="n">
-        <v>383.2377976077339</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D18" t="n">
-        <v>250.7109994434082</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E18" t="n">
-        <v>118.1842012790826</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F18" t="n">
-        <v>118.1842012790826</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G18" t="n">
-        <v>118.1842012790826</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H18" t="n">
         <v>10.49612241461459</v>
@@ -5597,49 +5597,49 @@
         <v>64.22582882795403</v>
       </c>
       <c r="K18" t="n">
-        <v>64.22582882795403</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="L18" t="n">
-        <v>194.1153437088096</v>
+        <v>324.004858589665</v>
       </c>
       <c r="M18" t="n">
-        <v>245.1112209220098</v>
+        <v>329.3700822162515</v>
       </c>
       <c r="N18" t="n">
-        <v>265.0270909690183</v>
+        <v>349.28595226326</v>
       </c>
       <c r="O18" t="n">
-        <v>394.9166058498739</v>
+        <v>349.28595226326</v>
       </c>
       <c r="P18" t="n">
-        <v>524.8061207307294</v>
+        <v>479.1754671441155</v>
       </c>
       <c r="Q18" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R18" t="n">
-        <v>460.1584073784824</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S18" t="n">
-        <v>460.1584073784824</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T18" t="n">
-        <v>460.1584073784824</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="U18" t="n">
-        <v>460.1584073784824</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V18" t="n">
-        <v>460.1584073784824</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W18" t="n">
-        <v>460.1584073784824</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="X18" t="n">
-        <v>383.2377976077339</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="Y18" t="n">
-        <v>383.2377976077339</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881292</v>
+        <v>44.60440993881298</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5688,28 +5688,28 @@
         <v>376.3859142399438</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R19" t="n">
-        <v>392.2793225664038</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S19" t="n">
+        <v>392.2793225664037</v>
+      </c>
+      <c r="T19" t="n">
+        <v>392.2793225664037</v>
+      </c>
+      <c r="U19" t="n">
         <v>259.7525244020782</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>127.2257262377526</v>
-      </c>
-      <c r="U19" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="V19" t="n">
-        <v>10.49612241461459</v>
       </c>
       <c r="W19" t="n">
         <v>10.49612241461459</v>
@@ -5734,61 +5734,61 @@
         <v>177.4295800846427</v>
       </c>
       <c r="D20" t="n">
-        <v>143.0229205789402</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="E20" t="n">
-        <v>143.0229205789402</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="F20" t="n">
-        <v>143.0229205789402</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="G20" t="n">
-        <v>143.0229205789402</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="H20" t="n">
-        <v>10.49612241461459</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="I20" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J20" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K20" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L20" t="n">
-        <v>90.11941249266594</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0089273735215</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="N20" t="n">
-        <v>220.0089273735215</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O20" t="n">
-        <v>288.4474575841818</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3369724650373</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R20" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S20" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="T20" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="U20" t="n">
-        <v>442.483176413294</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="V20" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="W20" t="n">
         <v>177.4295800846427</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="C21" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="D21" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="E21" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="F21" t="n">
         <v>143.0229205789402</v>
-      </c>
-      <c r="C21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="D21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="E21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10.49612241461459</v>
       </c>
       <c r="G21" t="n">
         <v>10.49612241461459</v>
@@ -5831,52 +5831,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K21" t="n">
-        <v>140.3856372954701</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="L21" t="n">
-        <v>270.2751521763256</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="M21" t="n">
-        <v>275.6403758029122</v>
+        <v>199.4805673353961</v>
       </c>
       <c r="N21" t="n">
-        <v>295.5562458499207</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O21" t="n">
-        <v>394.9166058498739</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P21" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U21" t="n">
-        <v>524.8061207307294</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="V21" t="n">
-        <v>408.0765169075914</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="W21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="Y21" t="n">
-        <v>143.0229205789402</v>
+        <v>408.0765169075913</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F22" t="n">
         <v>10.49612241461459</v>
@@ -5913,7 +5913,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881299</v>
+        <v>44.60440993881298</v>
       </c>
       <c r="L22" t="n">
         <v>143.777709500362</v>
@@ -5937,25 +5937,25 @@
         <v>524.8061207307294</v>
       </c>
       <c r="S22" t="n">
-        <v>524.8061207307294</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T22" t="n">
-        <v>524.8061207307294</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="U22" t="n">
-        <v>524.8061207307294</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V22" t="n">
-        <v>392.2793225664038</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W22" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>931.6490558755215</v>
+        <v>1041.773247034615</v>
       </c>
       <c r="C23" t="n">
-        <v>931.6490558755215</v>
+        <v>1041.773247034615</v>
       </c>
       <c r="D23" t="n">
-        <v>931.6490558755215</v>
+        <v>964.2591208387912</v>
       </c>
       <c r="E23" t="n">
-        <v>545.8608032772772</v>
+        <v>964.2591208387912</v>
       </c>
       <c r="F23" t="n">
-        <v>545.8608032772772</v>
+        <v>964.2591208387912</v>
       </c>
       <c r="G23" t="n">
         <v>545.8608032772772</v>
@@ -5998,10 +5998,10 @@
         <v>713.8179739365964</v>
       </c>
       <c r="M23" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O23" t="n">
         <v>1848.86027121381</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.536251638565</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T23" t="n">
-        <v>1710.999519450787</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="U23" t="n">
-        <v>1457.202973332103</v>
+        <v>1725.604789648299</v>
       </c>
       <c r="V23" t="n">
-        <v>1457.202973332103</v>
+        <v>1394.541902304729</v>
       </c>
       <c r="W23" t="n">
-        <v>1318.248895939643</v>
+        <v>1041.773247034615</v>
       </c>
       <c r="X23" t="n">
-        <v>1318.248895939643</v>
+        <v>1041.773247034615</v>
       </c>
       <c r="Y23" t="n">
-        <v>1318.248895939643</v>
+        <v>1041.773247034615</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>934.9190009746949</v>
+        <v>526.623655306929</v>
       </c>
       <c r="C24" t="n">
-        <v>760.4659716935679</v>
+        <v>352.170626025802</v>
       </c>
       <c r="D24" t="n">
-        <v>611.5315620323166</v>
+        <v>203.2362163645507</v>
       </c>
       <c r="E24" t="n">
-        <v>452.2941070268611</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F24" t="n">
-        <v>305.7595490537461</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G24" t="n">
-        <v>167.6169529433431</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H24" t="n">
-        <v>59.92887407887508</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I24" t="n">
         <v>43.99876135909523</v>
@@ -6080,40 +6080,40 @@
         <v>1137.737218444433</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.202039091559</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O24" t="n">
-        <v>1907.203879601196</v>
+        <v>1764.216596447708</v>
       </c>
       <c r="P24" t="n">
-        <v>2199.938067954761</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q24" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R24" t="n">
-        <v>2135.290354602514</v>
+        <v>2190.33203613359</v>
       </c>
       <c r="S24" t="n">
-        <v>1972.799111435054</v>
+        <v>2027.840792966129</v>
       </c>
       <c r="T24" t="n">
-        <v>1772.983493693451</v>
+        <v>1828.025175224527</v>
       </c>
       <c r="U24" t="n">
-        <v>1772.983493693451</v>
+        <v>1599.840256257428</v>
       </c>
       <c r="V24" t="n">
-        <v>1772.983493693451</v>
+        <v>1364.688148025685</v>
       </c>
       <c r="W24" t="n">
-        <v>1518.74613696525</v>
+        <v>1110.450791297484</v>
       </c>
       <c r="X24" t="n">
-        <v>1310.894636759717</v>
+        <v>902.5992910919508</v>
       </c>
       <c r="Y24" t="n">
-        <v>1103.134337994763</v>
+        <v>694.838992326997</v>
       </c>
     </row>
     <row r="25">
@@ -6177,16 +6177,16 @@
         <v>558.30875967521</v>
       </c>
       <c r="T25" t="n">
-        <v>492.7808914006426</v>
+        <v>554.2085105395859</v>
       </c>
       <c r="U25" t="n">
-        <v>492.7808914006426</v>
+        <v>554.2085105395859</v>
       </c>
       <c r="V25" t="n">
-        <v>492.7808914006426</v>
+        <v>554.2085105395859</v>
       </c>
       <c r="W25" t="n">
-        <v>492.7808914006426</v>
+        <v>264.7913405026253</v>
       </c>
       <c r="X25" t="n">
         <v>264.7913405026253</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1375.245025628399</v>
+        <v>1213.246848835864</v>
       </c>
       <c r="C26" t="n">
-        <v>1375.245025628399</v>
+        <v>844.2843318954522</v>
       </c>
       <c r="D26" t="n">
-        <v>1375.245025628399</v>
+        <v>486.0186332887017</v>
       </c>
       <c r="E26" t="n">
-        <v>1375.245025628399</v>
+        <v>486.0186332887017</v>
       </c>
       <c r="F26" t="n">
-        <v>964.2591208387912</v>
+        <v>486.0186332887017</v>
       </c>
       <c r="G26" t="n">
-        <v>545.8608032772772</v>
+        <v>67.62031572718774</v>
       </c>
       <c r="H26" t="n">
-        <v>214.2161633091196</v>
+        <v>67.62031572718774</v>
       </c>
       <c r="I26" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J26" t="n">
-        <v>123.6220514371464</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K26" t="n">
-        <v>363.7015273031525</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L26" t="n">
-        <v>713.8179739365962</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M26" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N26" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O26" t="n">
         <v>1848.86027121381</v>
@@ -6250,28 +6250,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R26" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S26" t="n">
-        <v>2013.859195956</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T26" t="n">
-        <v>1793.322463768223</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="U26" t="n">
-        <v>1793.322463768223</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="V26" t="n">
-        <v>1793.322463768223</v>
+        <v>1566.015504105978</v>
       </c>
       <c r="W26" t="n">
-        <v>1793.322463768223</v>
+        <v>1213.246848835864</v>
       </c>
       <c r="X26" t="n">
-        <v>1419.856705507143</v>
+        <v>1213.246848835864</v>
       </c>
       <c r="Y26" t="n">
-        <v>1375.245025628399</v>
+        <v>1213.246848835864</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>842.5013275833954</v>
+        <v>536.2296871281003</v>
       </c>
       <c r="C27" t="n">
-        <v>668.0482983022684</v>
+        <v>361.7766578469733</v>
       </c>
       <c r="D27" t="n">
-        <v>519.1138886410172</v>
+        <v>361.7766578469733</v>
       </c>
       <c r="E27" t="n">
-        <v>359.8764336355617</v>
+        <v>202.5392028415178</v>
       </c>
       <c r="F27" t="n">
-        <v>359.8764336355617</v>
+        <v>202.5392028415178</v>
       </c>
       <c r="G27" t="n">
-        <v>221.7338375251587</v>
+        <v>202.5392028415178</v>
       </c>
       <c r="H27" t="n">
         <v>114.0457586606907</v>
@@ -6329,28 +6329,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S27" t="n">
-        <v>1972.799111435054</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T27" t="n">
-        <v>1889.665490772792</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="U27" t="n">
-        <v>1661.480571805693</v>
+        <v>1609.446288078599</v>
       </c>
       <c r="V27" t="n">
-        <v>1426.32846357395</v>
+        <v>1374.294179846857</v>
       </c>
       <c r="W27" t="n">
-        <v>1426.32846357395</v>
+        <v>1120.056823118655</v>
       </c>
       <c r="X27" t="n">
-        <v>1218.476963368417</v>
+        <v>912.2053229131222</v>
       </c>
       <c r="Y27" t="n">
-        <v>1010.716664603463</v>
+        <v>704.4450241481684</v>
       </c>
     </row>
     <row r="28">
@@ -6408,22 +6408,22 @@
         <v>558.30875967521</v>
       </c>
       <c r="R28" t="n">
-        <v>489.6734151974546</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S28" t="n">
-        <v>271.9883122571126</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T28" t="n">
-        <v>271.9883122571126</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U28" t="n">
-        <v>271.9883122571126</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="V28" t="n">
-        <v>271.9883122571126</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="W28" t="n">
-        <v>271.9883122571126</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X28" t="n">
         <v>43.99876135909523</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>462.3970789206091</v>
+        <v>773.371430718418</v>
       </c>
       <c r="C29" t="n">
-        <v>462.3970789206091</v>
+        <v>773.371430718418</v>
       </c>
       <c r="D29" t="n">
-        <v>462.3970789206091</v>
+        <v>415.1057321116675</v>
       </c>
       <c r="E29" t="n">
-        <v>462.3970789206091</v>
+        <v>415.1057321116675</v>
       </c>
       <c r="F29" t="n">
-        <v>462.3970789206091</v>
+        <v>415.1057321116675</v>
       </c>
       <c r="G29" t="n">
-        <v>43.99876135909523</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H29" t="n">
         <v>43.99876135909523</v>
@@ -6469,10 +6469,10 @@
         <v>363.7015273031528</v>
       </c>
       <c r="L29" t="n">
-        <v>713.817973936596</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.996526506345</v>
+        <v>1119.996526506346</v>
       </c>
       <c r="N29" t="n">
         <v>1518.115475157463</v>
@@ -6487,28 +6487,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R29" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S29" t="n">
-        <v>2199.938067954761</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="T29" t="n">
-        <v>2199.938067954761</v>
+        <v>1710.999519450787</v>
       </c>
       <c r="U29" t="n">
-        <v>2199.938067954761</v>
+        <v>1457.202973332103</v>
       </c>
       <c r="V29" t="n">
-        <v>1868.87518061119</v>
+        <v>1126.140085988532</v>
       </c>
       <c r="W29" t="n">
-        <v>1612.602009221622</v>
+        <v>773.371430718418</v>
       </c>
       <c r="X29" t="n">
-        <v>1239.136250960543</v>
+        <v>773.371430718418</v>
       </c>
       <c r="Y29" t="n">
-        <v>848.9969189847309</v>
+        <v>773.371430718418</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>699.7668927429522</v>
+        <v>471.5819737758532</v>
       </c>
       <c r="C30" t="n">
-        <v>525.3138634618252</v>
+        <v>297.1289444947262</v>
       </c>
       <c r="D30" t="n">
-        <v>376.379453800574</v>
+        <v>203.2362163645507</v>
       </c>
       <c r="E30" t="n">
-        <v>217.1419987951185</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F30" t="n">
-        <v>182.1413574694982</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G30" t="n">
         <v>43.99876135909523</v>
@@ -6554,10 +6554,10 @@
         <v>1137.737218444433</v>
       </c>
       <c r="N30" t="n">
-        <v>1378.293565350461</v>
+        <v>1632.202039091559</v>
       </c>
       <c r="O30" t="n">
-        <v>1764.216596447708</v>
+        <v>2018.125070188807</v>
       </c>
       <c r="P30" t="n">
         <v>2056.950784801274</v>
@@ -6575,19 +6575,19 @@
         <v>1772.983493693451</v>
       </c>
       <c r="U30" t="n">
-        <v>1772.983493693451</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V30" t="n">
-        <v>1537.831385461709</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W30" t="n">
-        <v>1283.594028733507</v>
+        <v>1055.409109766408</v>
       </c>
       <c r="X30" t="n">
-        <v>1075.742528527974</v>
+        <v>847.5576095608751</v>
       </c>
       <c r="Y30" t="n">
-        <v>867.9822297630203</v>
+        <v>639.7973107959212</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>341.0053482693413</v>
+        <v>191.9118549414883</v>
       </c>
       <c r="C31" t="n">
-        <v>341.0053482693413</v>
+        <v>191.9118549414883</v>
       </c>
       <c r="D31" t="n">
-        <v>190.8887088570056</v>
+        <v>191.9118549414883</v>
       </c>
       <c r="E31" t="n">
-        <v>190.8887088570056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F31" t="n">
         <v>43.99876135909523</v>
@@ -6654,19 +6654,19 @@
         <v>558.30875967521</v>
       </c>
       <c r="U31" t="n">
-        <v>558.30875967521</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="V31" t="n">
-        <v>341.0053482693413</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="W31" t="n">
-        <v>341.0053482693413</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="X31" t="n">
-        <v>341.0053482693413</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="Y31" t="n">
-        <v>341.0053482693413</v>
+        <v>269.1245180942271</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>448.3974319807659</v>
+        <v>436.5076767959303</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43491504035421</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="D32" t="n">
-        <v>43.99876135909523</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="E32" t="n">
-        <v>43.99876135909523</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="F32" t="n">
-        <v>43.99876135909523</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="G32" t="n">
-        <v>43.99876135909523</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="H32" t="n">
-        <v>43.99876135909523</v>
+        <v>67.54515985551859</v>
       </c>
       <c r="I32" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.6220514371465</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K32" t="n">
         <v>363.7015273031528</v>
@@ -6709,7 +6709,7 @@
         <v>713.8179739365964</v>
       </c>
       <c r="M32" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N32" t="n">
         <v>1518.115475157463</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S32" t="n">
-        <v>2013.859195956</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T32" t="n">
-        <v>1793.322463768223</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="U32" t="n">
-        <v>1539.525917649538</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="V32" t="n">
-        <v>1208.463030305968</v>
+        <v>1566.015504105978</v>
       </c>
       <c r="W32" t="n">
-        <v>1208.463030305968</v>
+        <v>1213.246848835864</v>
       </c>
       <c r="X32" t="n">
-        <v>834.9972720448877</v>
+        <v>1213.246848835864</v>
       </c>
       <c r="Y32" t="n">
-        <v>834.9972720448877</v>
+        <v>823.1075168600521</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>679.433473981386</v>
+        <v>679.342272540807</v>
       </c>
       <c r="C33" t="n">
-        <v>504.980444700259</v>
+        <v>504.88924325968</v>
       </c>
       <c r="D33" t="n">
-        <v>356.0460350390077</v>
+        <v>504.88924325968</v>
       </c>
       <c r="E33" t="n">
-        <v>196.8085800335522</v>
+        <v>345.6517882542245</v>
       </c>
       <c r="F33" t="n">
-        <v>196.8085800335522</v>
+        <v>289.8294363339663</v>
       </c>
       <c r="G33" t="n">
-        <v>58.66598392314921</v>
+        <v>151.6868402235633</v>
       </c>
       <c r="H33" t="n">
         <v>43.99876135909523</v>
@@ -6779,25 +6779,25 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J33" t="n">
-        <v>43.99876135909523</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="K33" t="n">
-        <v>262.4522306760276</v>
+        <v>316.1819370893671</v>
       </c>
       <c r="L33" t="n">
-        <v>617.5942752920068</v>
+        <v>671.3239817053463</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.007512031093</v>
+        <v>1137.737218444433</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.47233267822</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O33" t="n">
-        <v>1907.203879601196</v>
+        <v>1764.216596447708</v>
       </c>
       <c r="P33" t="n">
-        <v>2199.938067954761</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q33" t="n">
         <v>2199.938067954761</v>
@@ -6821,10 +6821,10 @@
         <v>1055.409109766408</v>
       </c>
       <c r="X33" t="n">
-        <v>1055.409109766408</v>
+        <v>847.5576095608751</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.6488110014541</v>
+        <v>847.5576095608751</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>219.7499544400493</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="C34" t="n">
-        <v>219.7499544400493</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="D34" t="n">
-        <v>219.7499544400493</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="E34" t="n">
-        <v>219.7499544400493</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="F34" t="n">
-        <v>219.7499544400493</v>
+        <v>213.1934676058622</v>
       </c>
       <c r="G34" t="n">
-        <v>50.5552481932823</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H34" t="n">
         <v>43.99876135909523</v>
@@ -6882,28 +6882,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R34" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T34" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U34" t="n">
-        <v>401.398419270289</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="V34" t="n">
-        <v>401.398419270289</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="W34" t="n">
-        <v>401.398419270289</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="X34" t="n">
-        <v>401.398419270289</v>
+        <v>360.0834151037726</v>
       </c>
       <c r="Y34" t="n">
-        <v>401.398419270289</v>
+        <v>360.0834151037726</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>788.2534084831366</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C35" t="n">
-        <v>419.2908915427249</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D35" t="n">
-        <v>419.2908915427249</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E35" t="n">
         <v>33.50263894448064</v>
@@ -6937,25 +6937,25 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J35" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K35" t="n">
-        <v>273.5821148104869</v>
+        <v>353.2054048885382</v>
       </c>
       <c r="L35" t="n">
-        <v>623.6985614439305</v>
+        <v>587.1308018569847</v>
       </c>
       <c r="M35" t="n">
-        <v>1029.87711401368</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="N35" t="n">
-        <v>1029.87711401368</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O35" t="n">
-        <v>1360.621910070027</v>
+        <v>1324.054150483081</v>
       </c>
       <c r="P35" t="n">
-        <v>1605.230558545286</v>
+        <v>1568.66279895834</v>
       </c>
       <c r="Q35" t="n">
         <v>1675.131947224032</v>
@@ -6964,25 +6964,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S35" t="n">
-        <v>1675.131947224032</v>
+        <v>1536.476224515608</v>
       </c>
       <c r="T35" t="n">
-        <v>1675.131947224032</v>
+        <v>1536.476224515608</v>
       </c>
       <c r="U35" t="n">
-        <v>1675.131947224032</v>
+        <v>1536.476224515608</v>
       </c>
       <c r="V35" t="n">
-        <v>1675.131947224032</v>
+        <v>1536.476224515608</v>
       </c>
       <c r="W35" t="n">
-        <v>1548.319006808338</v>
+        <v>1183.707569245494</v>
       </c>
       <c r="X35" t="n">
-        <v>1174.853248547258</v>
+        <v>810.2418109844141</v>
       </c>
       <c r="Y35" t="n">
-        <v>1174.853248547258</v>
+        <v>420.1024790086024</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>541.9457643265018</v>
+        <v>239.6084853644702</v>
       </c>
       <c r="C36" t="n">
-        <v>506.7066827449104</v>
+        <v>65.15545608334318</v>
       </c>
       <c r="D36" t="n">
-        <v>357.7722730836591</v>
+        <v>65.15545608334318</v>
       </c>
       <c r="E36" t="n">
-        <v>357.7722730836591</v>
+        <v>65.15545608334318</v>
       </c>
       <c r="F36" t="n">
-        <v>211.2377151105441</v>
+        <v>65.15545608334318</v>
       </c>
       <c r="G36" t="n">
-        <v>211.2377151105441</v>
+        <v>65.15545608334318</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I36" t="n">
         <v>33.50263894448064</v>
@@ -7043,25 +7043,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S36" t="n">
-        <v>1675.131947224032</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T36" t="n">
-        <v>1675.131947224032</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="U36" t="n">
-        <v>1446.947028256933</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="V36" t="n">
-        <v>1211.79492002519</v>
+        <v>1077.672978083227</v>
       </c>
       <c r="W36" t="n">
-        <v>957.5575632969885</v>
+        <v>823.435621355025</v>
       </c>
       <c r="X36" t="n">
-        <v>749.7060630914557</v>
+        <v>615.5841211494921</v>
       </c>
       <c r="Y36" t="n">
-        <v>541.9457643265018</v>
+        <v>407.8238223845382</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="C37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="D37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="E37" t="n">
-        <v>136.2178086497875</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2178086497875</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="G37" t="n">
-        <v>136.2178086497875</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H37" t="n">
         <v>33.50263894448064</v>
@@ -7098,7 +7098,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
@@ -7119,28 +7119,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R37" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S37" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T37" t="n">
-        <v>390.9022968556744</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="U37" t="n">
-        <v>390.9022968556744</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="V37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="W37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="X37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.2178086497875</v>
+        <v>350.6104387736407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>830.2767963323324</v>
+        <v>904.1936417630158</v>
       </c>
       <c r="C38" t="n">
-        <v>830.2767963323324</v>
+        <v>535.231124822604</v>
       </c>
       <c r="D38" t="n">
-        <v>830.2767963323324</v>
+        <v>535.231124822604</v>
       </c>
       <c r="E38" t="n">
-        <v>444.4885437340882</v>
+        <v>535.231124822604</v>
       </c>
       <c r="F38" t="n">
-        <v>33.50263894448064</v>
+        <v>535.231124822604</v>
       </c>
       <c r="G38" t="n">
-        <v>33.50263894448064</v>
+        <v>203.720040894505</v>
       </c>
       <c r="H38" t="n">
-        <v>33.50263894448064</v>
+        <v>203.720040894505</v>
       </c>
       <c r="I38" t="n">
         <v>33.50263894448064</v>
@@ -7198,28 +7198,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S38" t="n">
-        <v>1592.809002906596</v>
+        <v>1489.053075225271</v>
       </c>
       <c r="T38" t="n">
-        <v>1592.809002906596</v>
+        <v>1489.053075225271</v>
       </c>
       <c r="U38" t="n">
-        <v>1592.809002906596</v>
+        <v>1235.256529106586</v>
       </c>
       <c r="V38" t="n">
-        <v>1261.746115563026</v>
+        <v>904.1936417630158</v>
       </c>
       <c r="W38" t="n">
-        <v>1261.746115563026</v>
+        <v>904.1936417630158</v>
       </c>
       <c r="X38" t="n">
-        <v>1261.746115563026</v>
+        <v>904.1936417630158</v>
       </c>
       <c r="Y38" t="n">
-        <v>871.6067835872141</v>
+        <v>904.1936417630158</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>591.6893719078848</v>
+        <v>978.5397631418958</v>
       </c>
       <c r="C39" t="n">
-        <v>495.9148691940621</v>
+        <v>804.0867338607688</v>
       </c>
       <c r="D39" t="n">
-        <v>495.9148691940621</v>
+        <v>655.1523241995176</v>
       </c>
       <c r="E39" t="n">
         <v>495.9148691940621</v>
@@ -7256,19 +7256,19 @@
         <v>87.23234535782009</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8765576349093</v>
+        <v>221.3723025927055</v>
       </c>
       <c r="L39" t="n">
-        <v>460.0186022508885</v>
+        <v>576.5143472086847</v>
       </c>
       <c r="M39" t="n">
-        <v>874.6137591888364</v>
+        <v>581.8795708352714</v>
       </c>
       <c r="N39" t="n">
-        <v>1289.208916126784</v>
+        <v>996.4747277732192</v>
       </c>
       <c r="O39" t="n">
-        <v>1675.131947224032</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P39" t="n">
         <v>1675.131947224032</v>
@@ -7277,28 +7277,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R39" t="n">
-        <v>1610.484233871785</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S39" t="n">
-        <v>1610.484233871785</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T39" t="n">
-        <v>1410.668616130182</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="U39" t="n">
-        <v>1410.668616130182</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="V39" t="n">
-        <v>1175.51650789844</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="W39" t="n">
-        <v>1175.51650789844</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="X39" t="n">
-        <v>967.6650076929068</v>
+        <v>1354.515398926918</v>
       </c>
       <c r="Y39" t="n">
-        <v>759.9047089279529</v>
+        <v>1146.755100161964</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="C40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="D40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="E40" t="n">
-        <v>175.6929043795484</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="F40" t="n">
-        <v>175.6929043795484</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="G40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I40" t="n">
         <v>33.50263894448064</v>
@@ -7335,7 +7335,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7362,22 +7362,22 @@
         <v>390.9022968556744</v>
       </c>
       <c r="T40" t="n">
-        <v>175.6929043795484</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="U40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="V40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="W40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="X40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.6929043795484</v>
+        <v>350.6104387736407</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>736.9324876285621</v>
+        <v>771.3903478175787</v>
       </c>
       <c r="C41" t="n">
-        <v>736.9324876285621</v>
+        <v>723.4129775193887</v>
       </c>
       <c r="D41" t="n">
-        <v>736.9324876285621</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="E41" t="n">
-        <v>736.9324876285621</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="F41" t="n">
-        <v>325.9465828389545</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="G41" t="n">
-        <v>33.50263894448064</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="H41" t="n">
         <v>33.50263894448064</v>
@@ -7417,19 +7417,19 @@
         <v>33.50263894448064</v>
       </c>
       <c r="L41" t="n">
-        <v>189.0118532058668</v>
+        <v>383.6190855779243</v>
       </c>
       <c r="M41" t="n">
-        <v>595.1904057756162</v>
+        <v>789.7976381476738</v>
       </c>
       <c r="N41" t="n">
-        <v>993.3093544267339</v>
+        <v>1187.916586798792</v>
       </c>
       <c r="O41" t="n">
-        <v>1324.054150483081</v>
+        <v>1518.661382855138</v>
       </c>
       <c r="P41" t="n">
-        <v>1568.66279895834</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q41" t="n">
         <v>1675.131947224032</v>
@@ -7438,25 +7438,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S41" t="n">
-        <v>1675.131947224032</v>
+        <v>1489.053075225271</v>
       </c>
       <c r="T41" t="n">
-        <v>1454.595215036255</v>
+        <v>1489.053075225271</v>
       </c>
       <c r="U41" t="n">
-        <v>1454.595215036255</v>
+        <v>1489.053075225271</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.532327692684</v>
+        <v>1157.9901878817</v>
       </c>
       <c r="W41" t="n">
-        <v>1123.532327692684</v>
+        <v>1157.9901878817</v>
       </c>
       <c r="X41" t="n">
-        <v>1123.532327692684</v>
+        <v>1157.9901878817</v>
       </c>
       <c r="Y41" t="n">
-        <v>1123.532327692684</v>
+        <v>1157.9901878817</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>425.8678718924667</v>
+        <v>433.8762601456407</v>
       </c>
       <c r="C42" t="n">
-        <v>425.8678718924667</v>
+        <v>259.4232308645137</v>
       </c>
       <c r="D42" t="n">
-        <v>425.8678718924667</v>
+        <v>259.4232308645137</v>
       </c>
       <c r="E42" t="n">
-        <v>425.8678718924667</v>
+        <v>259.4232308645137</v>
       </c>
       <c r="F42" t="n">
-        <v>279.3333139193517</v>
+        <v>112.8886728913987</v>
       </c>
       <c r="G42" t="n">
-        <v>141.1907178089486</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="H42" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I42" t="n">
         <v>33.50263894448064</v>
@@ -7499,43 +7499,43 @@
         <v>442.3743899737993</v>
       </c>
       <c r="M42" t="n">
-        <v>856.9695469117472</v>
+        <v>833.5715745727233</v>
       </c>
       <c r="N42" t="n">
-        <v>876.8854169587557</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O42" t="n">
         <v>1239.410475716979</v>
       </c>
       <c r="P42" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R42" t="n">
-        <v>1610.484233871785</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S42" t="n">
-        <v>1447.992990704324</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T42" t="n">
-        <v>1351.293756025043</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="U42" t="n">
-        <v>1123.108837057944</v>
+        <v>1084.64016734787</v>
       </c>
       <c r="V42" t="n">
-        <v>887.9567288262012</v>
+        <v>849.4880591161275</v>
       </c>
       <c r="W42" t="n">
-        <v>633.7193720979996</v>
+        <v>849.4880591161275</v>
       </c>
       <c r="X42" t="n">
-        <v>425.8678718924667</v>
+        <v>641.6365589105947</v>
       </c>
       <c r="Y42" t="n">
-        <v>425.8678718924667</v>
+        <v>433.8762601456407</v>
       </c>
     </row>
     <row r="43">
@@ -7572,7 +7572,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7599,10 +7599,10 @@
         <v>547.8126372605955</v>
       </c>
       <c r="T43" t="n">
-        <v>547.8126372605955</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="U43" t="n">
-        <v>288.1871271503675</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="V43" t="n">
         <v>33.50263894448064</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>562.2976936287162</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="C44" t="n">
-        <v>562.2976936287162</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="D44" t="n">
-        <v>204.0319950219657</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="E44" t="n">
-        <v>204.0319950219657</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0319950219657</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="G44" t="n">
-        <v>33.50263894448064</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="H44" t="n">
         <v>33.50263894448064</v>
@@ -7651,19 +7651,19 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K44" t="n">
-        <v>273.5821148104869</v>
+        <v>189.9732033133744</v>
       </c>
       <c r="L44" t="n">
-        <v>623.6985614439305</v>
+        <v>540.0896499468181</v>
       </c>
       <c r="M44" t="n">
-        <v>1029.87711401368</v>
+        <v>946.2682025165675</v>
       </c>
       <c r="N44" t="n">
-        <v>1427.996062664798</v>
+        <v>1344.387151167685</v>
       </c>
       <c r="O44" t="n">
-        <v>1430.523298748773</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P44" t="n">
         <v>1675.131947224032</v>
@@ -7681,19 +7681,19 @@
         <v>1675.131947224032</v>
       </c>
       <c r="U44" t="n">
-        <v>1675.131947224032</v>
+        <v>1459.96472631593</v>
       </c>
       <c r="V44" t="n">
-        <v>1675.131947224032</v>
+        <v>1128.90183897236</v>
       </c>
       <c r="W44" t="n">
-        <v>1322.363291953918</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="X44" t="n">
-        <v>948.8975336928379</v>
+        <v>776.1331837022458</v>
       </c>
       <c r="Y44" t="n">
-        <v>948.8975336928379</v>
+        <v>776.1331837022458</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>453.7863432004787</v>
+        <v>800.8046869758324</v>
       </c>
       <c r="C45" t="n">
-        <v>279.3333139193517</v>
+        <v>626.3516576947054</v>
       </c>
       <c r="D45" t="n">
-        <v>279.3333139193517</v>
+        <v>477.4172480334542</v>
       </c>
       <c r="E45" t="n">
-        <v>279.3333139193517</v>
+        <v>318.1797930279987</v>
       </c>
       <c r="F45" t="n">
-        <v>279.3333139193517</v>
+        <v>171.6452350548837</v>
       </c>
       <c r="G45" t="n">
-        <v>141.1907178089486</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H45" t="n">
         <v>33.50263894448064</v>
@@ -7730,22 +7730,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K45" t="n">
-        <v>33.50263894448064</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="L45" t="n">
-        <v>33.50263894448064</v>
+        <v>607.0981528773923</v>
       </c>
       <c r="M45" t="n">
-        <v>448.0977958824285</v>
+        <v>833.5715745727233</v>
       </c>
       <c r="N45" t="n">
-        <v>862.6929528203764</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O45" t="n">
-        <v>1248.615983917624</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P45" t="n">
-        <v>1541.350172271189</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q45" t="n">
         <v>1675.131947224032</v>
@@ -7757,22 +7757,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T45" t="n">
-        <v>1475.316329482429</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U45" t="n">
-        <v>1247.13141051533</v>
+        <v>1247.131410515331</v>
       </c>
       <c r="V45" t="n">
         <v>1011.979302283588</v>
       </c>
       <c r="W45" t="n">
-        <v>829.8531804260795</v>
+        <v>1011.979302283588</v>
       </c>
       <c r="X45" t="n">
-        <v>622.0016802205466</v>
+        <v>969.0200239959004</v>
       </c>
       <c r="Y45" t="n">
-        <v>622.0016802205466</v>
+        <v>969.0200239959004</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.6192783568164</v>
+        <v>339.8738504046536</v>
       </c>
       <c r="C46" t="n">
-        <v>183.6192783568164</v>
+        <v>339.8738504046536</v>
       </c>
       <c r="D46" t="n">
-        <v>33.50263894448064</v>
+        <v>339.8738504046536</v>
       </c>
       <c r="E46" t="n">
-        <v>33.50263894448064</v>
+        <v>339.8738504046536</v>
       </c>
       <c r="F46" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="G46" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="H46" t="n">
         <v>33.50263894448064</v>
@@ -7809,7 +7809,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
@@ -7833,25 +7833,25 @@
         <v>547.8126372605955</v>
       </c>
       <c r="S46" t="n">
-        <v>365.2677431870561</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T46" t="n">
-        <v>365.2677431870561</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U46" t="n">
-        <v>365.2677431870561</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V46" t="n">
-        <v>365.2677431870561</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W46" t="n">
-        <v>365.2677431870561</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="X46" t="n">
-        <v>365.2677431870561</v>
+        <v>339.8738504046536</v>
       </c>
       <c r="Y46" t="n">
-        <v>365.2677431870561</v>
+        <v>339.8738504046536</v>
       </c>
     </row>
   </sheetData>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>81.64089149439079</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L11" t="n">
-        <v>64.00823815303261</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M11" t="n">
         <v>170.4336974434447</v>
       </c>
       <c r="N11" t="n">
-        <v>166.4081024218203</v>
+        <v>104.3364007347544</v>
       </c>
       <c r="O11" t="n">
-        <v>65.07039272891663</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9207954498629</v>
+        <v>74.71926526718062</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K12" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L12" t="n">
-        <v>12.11100730752052</v>
+        <v>12.11100730752055</v>
       </c>
       <c r="M12" t="n">
-        <v>125.7821123780494</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>111.0844897311586</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="O12" t="n">
-        <v>129.9415340002656</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P12" t="n">
-        <v>153.9731994755838</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.64568859091231</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>81.64089149439079</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L14" t="n">
-        <v>64.00823815303261</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M14" t="n">
-        <v>39.23216726076237</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N14" t="n">
-        <v>166.4081024218203</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O14" t="n">
         <v>177.9160588632594</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9207954498629</v>
+        <v>120.1921577878845</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.2432889728388</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.80516699547515</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L15" t="n">
-        <v>12.11100730752052</v>
+        <v>63.62199439156126</v>
       </c>
       <c r="M15" t="n">
-        <v>120.4810404514764</v>
+        <v>125.7821123780495</v>
       </c>
       <c r="N15" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>135.2426059268386</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P15" t="n">
-        <v>153.9731994755838</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.64568859091231</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K17" t="n">
-        <v>81.64089149439079</v>
+        <v>207.5413497505002</v>
       </c>
       <c r="L17" t="n">
-        <v>64.00823815303261</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M17" t="n">
-        <v>39.23216726076237</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N17" t="n">
-        <v>166.4081024218203</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O17" t="n">
         <v>177.9160588632594</v>
       </c>
       <c r="P17" t="n">
-        <v>143.8490937627971</v>
+        <v>74.71926526718062</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L18" t="n">
         <v>143.3125374902029</v>
       </c>
       <c r="M18" t="n">
-        <v>46.09156927940774</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>135.2426059268386</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P18" t="n">
         <v>153.9731994755838</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.64568859091231</v>
+        <v>111.7372578703202</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K20" t="n">
         <v>81.64089149439079</v>
       </c>
       <c r="L20" t="n">
-        <v>64.00823815303261</v>
+        <v>195.2097683357149</v>
       </c>
       <c r="M20" t="n">
         <v>170.4336974434447</v>
       </c>
       <c r="N20" t="n">
-        <v>35.20657223913796</v>
+        <v>161.1070304952472</v>
       </c>
       <c r="O20" t="n">
-        <v>115.8443571761935</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9207954498629</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L21" t="n">
-        <v>143.3125374902029</v>
+        <v>143.3125374902028</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>46.09156927940778</v>
       </c>
       <c r="O21" t="n">
-        <v>104.4050757441089</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755838</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q21" t="n">
-        <v>65.64568859091231</v>
+        <v>196.8472187735946</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O24" t="n">
-        <v>281.820712622577</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>222.8691685444641</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>61.98956284084764</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O33" t="n">
-        <v>336.093143343122</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>300.2965179191402</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>175.3778597639994</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.363569001375</v>
+        <v>413.3635690013751</v>
       </c>
       <c r="N36" t="n">
-        <v>398.6659463544842</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>94.86653665697069</v>
+        <v>94.86653665697092</v>
       </c>
       <c r="Q36" t="n">
         <v>65.64568859091231</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>232.7703403872753</v>
+        <v>232.7703403872755</v>
       </c>
       <c r="Q38" t="n">
         <v>104.7703964521349</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>61.62760363899956</v>
+        <v>179.3000732933392</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>413.363569001375</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>398.6659463544842</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>22.77166929290142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>65.64568859091231</v>
@@ -11065,7 +11065,7 @@
         <v>81.64089149439079</v>
       </c>
       <c r="L41" t="n">
-        <v>221.0882525584732</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>232.7703403872755</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>413.363569001375</v>
+        <v>389.7292535074115</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>370.2280037827657</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,7 +11299,7 @@
         <v>88.66904943666836</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>239.6919666144855</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,10 +11311,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>49.26729240176383</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q44" t="n">
         <v>104.7703964521349</v>
@@ -11378,16 +11378,16 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K45" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>12.11100730752052</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.363569001375</v>
+        <v>223.341614210853</v>
       </c>
       <c r="N45" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7787946038846</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.5323114807982</v>
+        <v>348.6712487528351</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>250.7288398895794</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>184.2180832787735</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T11" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748153</v>
       </c>
       <c r="V11" t="n">
-        <v>196.5507282874526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>233.6786609325064</v>
+        <v>218.0394385347307</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.9721120836853</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.761170149299</v>
+        <v>5.559639966616658</v>
       </c>
       <c r="H12" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I12" t="n">
-        <v>69.34652732857948</v>
+        <v>17.78545576239745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>29.66480055310342</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T12" t="n">
-        <v>197.8174615641865</v>
+        <v>66.61593138150414</v>
       </c>
       <c r="U12" t="n">
-        <v>94.70153959474564</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.57145502079513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.5499336106988</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23439,7 +23439,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J13" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.13970681818944</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S13" t="n">
-        <v>84.30672172825621</v>
+        <v>99.94594412603199</v>
       </c>
       <c r="T13" t="n">
         <v>225.8595577750547</v>
@@ -23478,10 +23478,10 @@
         <v>120.9361131411457</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>94.50812520635483</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>251.5323114807983</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>223.4815114380006</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>275.6745155590291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.2143343858988</v>
@@ -23515,7 +23515,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I14" t="n">
-        <v>168.5152279305241</v>
+        <v>37.31369774784181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S14" t="n">
-        <v>53.0165530960912</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T14" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U14" t="n">
-        <v>135.696272872591</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>233.6786609325064</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>238.5295704957867</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718502</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.86768221070153</v>
+        <v>31.65313797309901</v>
       </c>
       <c r="G15" t="n">
         <v>136.761170149299</v>
@@ -23594,7 +23594,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I15" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>160.8663307357858</v>
+        <v>29.66480055310345</v>
       </c>
       <c r="T15" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
-        <v>94.70153959474564</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V15" t="n">
-        <v>101.5990569667429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>136.132675376013</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>36.04529091594549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23676,7 +23676,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J16" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
-        <v>155.3412370008718</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S16" t="n">
-        <v>215.5082519109386</v>
+        <v>99.94594412603199</v>
       </c>
       <c r="T16" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U16" t="n">
         <v>286.2923991651731</v>
@@ -23715,13 +23715,13 @@
         <v>120.9361131411457</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0223455671882</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>234.0713615883252</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H17" t="n">
-        <v>197.1266633857937</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I17" t="n">
-        <v>168.5152279305241</v>
+        <v>52.95292014561753</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S17" t="n">
         <v>184.2180832787735</v>
@@ -23788,16 +23788,16 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U17" t="n">
-        <v>135.696272872591</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>196.5507282874526</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>218.0394385347307</v>
       </c>
       <c r="X17" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>57.14619120340913</v>
       </c>
       <c r="D18" t="n">
-        <v>16.24353538195641</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>26.4435502727186</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,7 +23828,7 @@
         <v>136.761170149299</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I18" t="n">
         <v>69.34652732857948</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
-        <v>160.8663307357858</v>
+        <v>29.66480055310345</v>
       </c>
       <c r="T18" t="n">
-        <v>197.8174615641865</v>
+        <v>66.61593138150414</v>
       </c>
       <c r="U18" t="n">
         <v>225.903069777428</v>
@@ -23873,10 +23873,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X18" t="n">
-        <v>129.6215815304365</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23913,7 +23913,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J19" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R19" t="n">
-        <v>24.13970681818944</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S19" t="n">
-        <v>84.30672172825621</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T19" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U19" t="n">
-        <v>170.7300913802665</v>
+        <v>155.0908689824908</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>120.9361131411457</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>170.9606905516844</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6204487100374</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H20" t="n">
-        <v>197.1266633857937</v>
+        <v>197.1266633857938</v>
       </c>
       <c r="I20" t="n">
-        <v>168.5152279305241</v>
+        <v>134.4526350198787</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748153</v>
       </c>
       <c r="V20" t="n">
         <v>196.5507282874526</v>
       </c>
       <c r="W20" t="n">
-        <v>218.0394385347307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718502</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>13.86768221070153</v>
+        <v>13.86768221070156</v>
       </c>
       <c r="G21" t="n">
-        <v>136.761170149299</v>
+        <v>5.559639966616658</v>
       </c>
       <c r="H21" t="n">
         <v>106.6111980758233</v>
@@ -24104,19 +24104,19 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U21" t="n">
-        <v>225.903069777428</v>
+        <v>110.3407619925214</v>
       </c>
       <c r="V21" t="n">
-        <v>117.2382793645186</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>120.4934529782373</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.48116559462201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.85874023802467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.5027591842993</v>
@@ -24177,13 +24177,13 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S22" t="n">
-        <v>215.5082519109386</v>
+        <v>99.94594412603188</v>
       </c>
       <c r="T22" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824908</v>
       </c>
       <c r="V22" t="n">
         <v>120.9361131411457</v>
@@ -24192,7 +24192,7 @@
         <v>155.3214681539087</v>
       </c>
       <c r="X22" t="n">
-        <v>94.5081252063548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>277.9440566868176</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>211.6764320988781</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>53.57571573599743</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>54.49126471576462</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T25" t="n">
-        <v>160.986968183233</v>
+        <v>221.8003111307868</v>
       </c>
       <c r="U25" t="n">
         <v>286.2923991651731</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>145.1298891061126</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.2585806574976</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>342.0723755760967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>19.00268833680448</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>115.5151771085473</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R28" t="n">
-        <v>87.3922459678939</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T28" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>63.64849916881047</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>375.1466269093283</v>
       </c>
       <c r="H29" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>168.5152279305241</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>95.53052904174069</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>54.49126471576507</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>110.4185774810199</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H30" t="n">
         <v>106.6111980758233</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>103.391443660726</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.5027591842993</v>
@@ -24894,10 +24894,10 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>37.00726603201801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>319.6012494762365</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24937,7 +24937,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I32" t="n">
-        <v>168.5152279305241</v>
+        <v>145.204293419065</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>89.80508399232821</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>92.0906477374099</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>69.34652732857948</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3955293567947</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I34" t="n">
         <v>140.7683627807171</v>
@@ -25122,7 +25122,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S34" t="n">
         <v>215.5082519109386</v>
@@ -25131,7 +25131,7 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2923991651731</v>
+        <v>90.04930803945001</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25204,7 +25204,7 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S35" t="n">
-        <v>184.2180832787735</v>
+        <v>46.94891779743375</v>
       </c>
       <c r="T35" t="n">
         <v>218.3313648658995</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>223.6961577058763</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>137.8218082225402</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.27490910834942</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>56.19843331438608</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I37" t="n">
         <v>140.7683627807171</v>
@@ -25359,19 +25359,19 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T37" t="n">
-        <v>225.8595577750547</v>
+        <v>30.62938127296951</v>
       </c>
       <c r="U37" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.8171542811477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>86.01836129708084</v>
       </c>
       <c r="H38" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I38" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S38" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>77.89174130163127</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
         <v>225.903069777428</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>49.22893312512008</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.8864513226399</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
         <v>58.84201380359813</v>
@@ -25602,10 +25602,10 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
-        <v>12.8022592236899</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2923991651731</v>
+        <v>246.4034596639598</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>317.7752951757995</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>124.6948299303697</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H41" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>168.5152279305241</v>
@@ -25678,10 +25678,10 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
         <v>251.2585806574976</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.5155238704296</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I42" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>102.085219231698</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25839,13 +25839,13 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.26314415604747</v>
+        <v>2.985058607274141</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>245.3902718691886</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25921,16 +25921,16 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2585806574976</v>
+        <v>38.24303195847699</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
         <v>69.34652732857948</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>71.39012252198648</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>163.2432996986668</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H46" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>140.7683627807171</v>
@@ -26073,7 +26073,7 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S46" t="n">
-        <v>34.78880677813461</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T46" t="n">
         <v>225.8595577750547</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>19.85025640165469</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>376790.4817339578</v>
+        <v>376790.4817339579</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>376790.4817339579</v>
+        <v>376790.481733958</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>376790.4817339579</v>
+        <v>376790.481733958</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655785.8967216087</v>
+        <v>655785.8967216088</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655785.8967216087</v>
+        <v>655785.8967216085</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568378.7514612199</v>
+        <v>568378.75146122</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568378.7514612199</v>
+        <v>568378.7514612197</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568378.7514612197</v>
+        <v>568378.75146122</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="C2" t="n">
         <v>573493.4371019269</v>
@@ -26322,7 +26322,7 @@
         <v>573493.4371019268</v>
       </c>
       <c r="E2" t="n">
-        <v>217079.3405229852</v>
+        <v>217079.3405229851</v>
       </c>
       <c r="F2" t="n">
         <v>217079.3405229851</v>
@@ -26334,28 +26334,28 @@
         <v>217079.3405229852</v>
       </c>
       <c r="I2" t="n">
+        <v>355872.5320207881</v>
+      </c>
+      <c r="J2" t="n">
         <v>355872.532020788</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>355872.5320207881</v>
-      </c>
-      <c r="K2" t="n">
-        <v>355872.532020788</v>
       </c>
       <c r="L2" t="n">
         <v>355872.5320207879</v>
       </c>
       <c r="M2" t="n">
-        <v>312389.6789031538</v>
+        <v>312389.6789031537</v>
       </c>
       <c r="N2" t="n">
-        <v>312389.6789031537</v>
+        <v>312389.6789031541</v>
       </c>
       <c r="O2" t="n">
-        <v>312389.6789031537</v>
+        <v>312389.678903154</v>
       </c>
       <c r="P2" t="n">
-        <v>312389.6789031537</v>
+        <v>312389.6789031539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256687.4423642919</v>
+        <v>256687.4423642918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111363.1906344404</v>
+        <v>111363.1906344405</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>51285.24255516817</v>
       </c>
       <c r="F4" t="n">
-        <v>51285.24255516815</v>
+        <v>51285.24255516817</v>
       </c>
       <c r="G4" t="n">
+        <v>51285.24255516817</v>
+      </c>
+      <c r="H4" t="n">
         <v>51285.24255516816</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51285.24255516817</v>
       </c>
       <c r="I4" t="n">
         <v>122394.3229864328</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="F5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="G5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="H5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="I5" t="n">
         <v>39341.19670197842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119673.9324337146</v>
+        <v>119713.6546345274</v>
       </c>
       <c r="C6" t="n">
-        <v>119673.9324337145</v>
+        <v>119713.6546345275</v>
       </c>
       <c r="D6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345274</v>
       </c>
       <c r="E6" t="n">
-        <v>-117545.7461571485</v>
+        <v>-106049.8565662981</v>
       </c>
       <c r="F6" t="n">
-        <v>139141.6962071434</v>
+        <v>150637.5857979938</v>
       </c>
       <c r="G6" t="n">
-        <v>139141.6962071433</v>
+        <v>150637.5857979937</v>
       </c>
       <c r="H6" t="n">
-        <v>139141.6962071434</v>
+        <v>150637.5857979938</v>
       </c>
       <c r="I6" t="n">
-        <v>74957.51073778594</v>
+        <v>81992.19060192135</v>
       </c>
       <c r="J6" t="n">
-        <v>186320.7013722264</v>
+        <v>193355.3812363617</v>
       </c>
       <c r="K6" t="n">
-        <v>186320.7013722264</v>
+        <v>193355.3812363618</v>
       </c>
       <c r="L6" t="n">
-        <v>186320.7013722264</v>
+        <v>193355.3812363617</v>
       </c>
       <c r="M6" t="n">
-        <v>171539.8772576524</v>
+        <v>179972.2202577117</v>
       </c>
       <c r="N6" t="n">
-        <v>171539.8772576524</v>
+        <v>179972.220257712</v>
       </c>
       <c r="O6" t="n">
-        <v>171539.8772576524</v>
+        <v>179972.2202577119</v>
       </c>
       <c r="P6" t="n">
-        <v>171539.8772576523</v>
+        <v>179972.2202577118</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.782986806008</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J11" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K11" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L11" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M11" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N11" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O11" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P11" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q11" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R11" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S11" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T11" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H12" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J12" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K12" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L12" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M12" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N12" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O12" t="n">
         <v>138.5551687002882</v>
@@ -31861,10 +31861,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R12" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S12" t="n">
         <v>10.81684036805206</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H13" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I13" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J13" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K13" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L13" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M13" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N13" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O13" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P13" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S13" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T13" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J14" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K14" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L14" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M14" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N14" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O14" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P14" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q14" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R14" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S14" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T14" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H15" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J15" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K15" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L15" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M15" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N15" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O15" t="n">
         <v>138.5551687002882</v>
@@ -32098,10 +32098,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R15" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S15" t="n">
         <v>10.81684036805206</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H16" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I16" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J16" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K16" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L16" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M16" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N16" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O16" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P16" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S16" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T16" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J17" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K17" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L17" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M17" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N17" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O17" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P17" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q17" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R17" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S17" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T17" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H18" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J18" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K18" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L18" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M18" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N18" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O18" t="n">
         <v>138.5551687002882</v>
@@ -32335,10 +32335,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R18" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S18" t="n">
         <v>10.81684036805206</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H19" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I19" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J19" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K19" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L19" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M19" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N19" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O19" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P19" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R19" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S19" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T19" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M11" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="N11" t="n">
-        <v>131.2015301826823</v>
+        <v>69.12982849561641</v>
       </c>
       <c r="O11" t="n">
-        <v>18.35586404833958</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>131.2015301826823</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N12" t="n">
-        <v>131.2015301826823</v>
+        <v>120.4810404514765</v>
       </c>
       <c r="O12" t="n">
-        <v>125.9004582561093</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.45281568100845</v>
+        <v>34.4528156810084</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35582,10 +35582,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O13" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P13" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="P14" t="n">
-        <v>131.2015301826823</v>
+        <v>45.47289252070389</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.47289252070389</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>51.51098708404071</v>
       </c>
       <c r="M15" t="n">
-        <v>125.9004582561093</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N15" t="n">
-        <v>131.2015301826823</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L16" t="n">
         <v>100.1750500621707</v>
@@ -35819,10 +35819,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O16" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P16" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="P17" t="n">
-        <v>69.12982849561647</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M18" t="n">
-        <v>51.51098708404064</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N18" t="n">
-        <v>20.11704045152376</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.09156927940787</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L19" t="n">
         <v>100.1750500621707</v>
@@ -36056,10 +36056,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O19" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P19" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="O20" t="n">
-        <v>69.12982849561647</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>131.2015301826823</v>
@@ -36211,16 +36211,16 @@
         <v>5.4194178046329</v>
       </c>
       <c r="N21" t="n">
-        <v>20.11704045152376</v>
+        <v>66.20860973093154</v>
       </c>
       <c r="O21" t="n">
-        <v>100.3639999999527</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M23" t="n">
-        <v>410.2813662320701</v>
+        <v>410.2813662320697</v>
       </c>
       <c r="N23" t="n">
         <v>402.1403521728462</v>
@@ -36448,16 +36448,16 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N24" t="n">
-        <v>499.4594147950773</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O24" t="n">
-        <v>277.7796368784208</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P24" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O26" t="n">
-        <v>334.0856525821683</v>
+        <v>334.085652582168</v>
       </c>
       <c r="P26" t="n">
         <v>247.0794429043021</v>
@@ -36837,7 +36837,7 @@
         <v>242.504521076774</v>
       </c>
       <c r="L29" t="n">
-        <v>353.6529763974173</v>
+        <v>353.6529763974178</v>
       </c>
       <c r="M29" t="n">
         <v>410.2813662320701</v>
@@ -36922,13 +36922,13 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N30" t="n">
-        <v>242.9862089959879</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O30" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P30" t="n">
-        <v>295.6910993470357</v>
+        <v>39.21789354794622</v>
       </c>
       <c r="Q30" t="n">
         <v>144.4315991449368</v>
@@ -37077,7 +37077,7 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M32" t="n">
-        <v>410.2813662320701</v>
+        <v>410.2813662320697</v>
       </c>
       <c r="N32" t="n">
         <v>402.1403521728462</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K33" t="n">
         <v>220.6600700171035</v>
@@ -37159,16 +37159,16 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N33" t="n">
-        <v>499.4594147950773</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O33" t="n">
-        <v>332.0520675989658</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P33" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K35" t="n">
         <v>242.504521076774</v>
       </c>
       <c r="L35" t="n">
-        <v>353.6529763974178</v>
+        <v>236.2882797661076</v>
       </c>
       <c r="M35" t="n">
         <v>410.2813662320701</v>
@@ -37326,7 +37326,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.60746331186454</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P36" t="n">
-        <v>72.09486736406927</v>
+        <v>72.0948673640695</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>334.0856525821683</v>
       </c>
       <c r="P38" t="n">
-        <v>158.0510751200947</v>
+        <v>158.0510751200949</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K39" t="n">
-        <v>17.82243664352441</v>
+        <v>135.494906297864</v>
       </c>
       <c r="L39" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M39" t="n">
-        <v>418.782986806008</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N39" t="n">
         <v>418.782986806008</v>
@@ -37639,7 +37639,7 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>157.0800144054406</v>
+        <v>353.6529763974178</v>
       </c>
       <c r="M41" t="n">
         <v>410.2813662320701</v>
@@ -37797,10 +37797,10 @@
         <v>334.0856525821683</v>
       </c>
       <c r="P41" t="n">
-        <v>247.0794429043021</v>
+        <v>158.0510751200949</v>
       </c>
       <c r="Q41" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>418.782986806008</v>
+        <v>395.1486713120444</v>
       </c>
       <c r="N42" t="n">
         <v>20.11704045152376</v>
       </c>
       <c r="O42" t="n">
-        <v>366.1869280386095</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P42" t="n">
         <v>295.6910993470357</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>242.504521076774</v>
+        <v>158.0510751200947</v>
       </c>
       <c r="L44" t="n">
         <v>353.6529763974178</v>
@@ -38031,10 +38031,10 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
-        <v>2.552763721186781</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P44" t="n">
-        <v>247.0794429043021</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
-        <v>418.782986806008</v>
+        <v>228.7610320154859</v>
       </c>
       <c r="N45" t="n">
-        <v>418.782986806008</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O45" t="n">
         <v>389.8212435325733</v>
@@ -38116,7 +38116,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.1331060129723</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
